--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/27.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/27.xlsx
@@ -479,13 +479,13 @@
         <v>-12.1203998459726</v>
       </c>
       <c r="E2" t="n">
-        <v>-11.5287183375074</v>
+        <v>-13.65481542074331</v>
       </c>
       <c r="F2" t="n">
-        <v>4.573401782924185</v>
+        <v>1.013310095553457</v>
       </c>
       <c r="G2" t="n">
-        <v>-16.82911068723891</v>
+        <v>-14.10070262501969</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-12.28752069542132</v>
       </c>
       <c r="E3" t="n">
-        <v>-12.26979399839437</v>
+        <v>-14.17964541889976</v>
       </c>
       <c r="F3" t="n">
-        <v>4.101060162490931</v>
+        <v>0.349866974706232</v>
       </c>
       <c r="G3" t="n">
-        <v>-16.89153352691568</v>
+        <v>-14.26621017448536</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-12.45431582314403</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.01830583872592</v>
+        <v>-14.99574289015954</v>
       </c>
       <c r="F4" t="n">
-        <v>3.663860723417062</v>
+        <v>-0.245134939011051</v>
       </c>
       <c r="G4" t="n">
-        <v>-15.98295071275447</v>
+        <v>-13.45132517692858</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-12.56578626407253</v>
       </c>
       <c r="E5" t="n">
-        <v>-13.54157135468496</v>
+        <v>-15.39294536405518</v>
       </c>
       <c r="F5" t="n">
-        <v>4.179631391849122</v>
+        <v>0.6588228746540553</v>
       </c>
       <c r="G5" t="n">
-        <v>-15.35823341530008</v>
+        <v>-13.16222353386729</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-12.59839572493358</v>
       </c>
       <c r="E6" t="n">
-        <v>-14.30477954965845</v>
+        <v>-16.15614378101494</v>
       </c>
       <c r="F6" t="n">
-        <v>4.348326573792022</v>
+        <v>0.8739342877914461</v>
       </c>
       <c r="G6" t="n">
-        <v>-14.74695599772284</v>
+        <v>-12.6510974219588</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-12.52986955862508</v>
       </c>
       <c r="E7" t="n">
-        <v>-15.09495550650984</v>
+        <v>-16.91338738761079</v>
       </c>
       <c r="F7" t="n">
-        <v>3.676024572501946</v>
+        <v>-0.2503955103998515</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.68330855276369</v>
+        <v>-11.65964594140339</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.33039895408185</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.19734344188243</v>
+        <v>-18.06139464605856</v>
       </c>
       <c r="F8" t="n">
-        <v>3.849354532954682</v>
+        <v>0.06975132626634008</v>
       </c>
       <c r="G8" t="n">
-        <v>-13.2961627659933</v>
+        <v>-11.95306946653502</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.00178008097733</v>
       </c>
       <c r="E9" t="n">
-        <v>-16.24909846857559</v>
+        <v>-17.87372033945829</v>
       </c>
       <c r="F9" t="n">
-        <v>4.189883639249042</v>
+        <v>0.3728795300288007</v>
       </c>
       <c r="G9" t="n">
-        <v>-13.02100945952332</v>
+        <v>-11.70004380514471</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.53959864981031</v>
       </c>
       <c r="E10" t="n">
-        <v>-16.99042346881277</v>
+        <v>-18.82494018250587</v>
       </c>
       <c r="F10" t="n">
-        <v>4.572423981550802</v>
+        <v>0.7810480463269289</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.34496247897319</v>
+        <v>-11.37309147091977</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.95750829356739</v>
       </c>
       <c r="E11" t="n">
-        <v>-17.67147190338776</v>
+        <v>-19.46405071617646</v>
       </c>
       <c r="F11" t="n">
-        <v>3.911044021601415</v>
+        <v>0.1821544831435817</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.69651394218679</v>
+        <v>-11.14651533667946</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.28994234122137</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.67327341148043</v>
+        <v>-20.37084415382438</v>
       </c>
       <c r="F12" t="n">
-        <v>4.409522272745196</v>
+        <v>0.6212166338337455</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.34530235588822</v>
+        <v>-10.94270730741838</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-9.563250883510044</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.32305175813463</v>
+        <v>-20.82362974678997</v>
       </c>
       <c r="F13" t="n">
-        <v>4.551670147400748</v>
+        <v>0.7727465126669074</v>
       </c>
       <c r="G13" t="n">
-        <v>-11.24206119787958</v>
+        <v>-10.91204834535596</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-8.839613111525386</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.07761129996055</v>
+        <v>-21.40485932816315</v>
       </c>
       <c r="F14" t="n">
-        <v>4.953771406177035</v>
+        <v>1.272935916214109</v>
       </c>
       <c r="G14" t="n">
-        <v>-10.5749317658547</v>
+        <v>-10.17031266854195</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-8.1660628083246</v>
       </c>
       <c r="E15" t="n">
-        <v>-20.01339419476362</v>
+        <v>-21.28367062594607</v>
       </c>
       <c r="F15" t="n">
-        <v>5.125008871690731</v>
+        <v>1.52658737048339</v>
       </c>
       <c r="G15" t="n">
-        <v>-10.38842104288876</v>
+        <v>-10.01272531020068</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-7.589694467713455</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.03403793532139</v>
+        <v>-22.24636496811029</v>
       </c>
       <c r="F16" t="n">
-        <v>5.142257287917207</v>
+        <v>1.591792055067435</v>
       </c>
       <c r="G16" t="n">
-        <v>-10.66463037484199</v>
+        <v>-10.29050401335819</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-7.160465839963465</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.46008790329747</v>
+        <v>-23.46906647347078</v>
       </c>
       <c r="F17" t="n">
-        <v>5.511343083321217</v>
+        <v>2.22325618199817</v>
       </c>
       <c r="G17" t="n">
-        <v>-10.20547929493567</v>
+        <v>-9.928130824382455</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-6.891849972372492</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.50749660288595</v>
+        <v>-23.50218949499413</v>
       </c>
       <c r="F18" t="n">
-        <v>5.748107907872174</v>
+        <v>2.45917520836115</v>
       </c>
       <c r="G18" t="n">
-        <v>-10.21625955507722</v>
+        <v>-9.883151961206838</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-6.807455860423583</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.29051016467731</v>
+        <v>-24.34134352263828</v>
       </c>
       <c r="F19" t="n">
-        <v>5.576953555475216</v>
+        <v>2.239961918462418</v>
       </c>
       <c r="G19" t="n">
-        <v>-8.835780020107649</v>
+        <v>-8.426462587195795</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-6.898360157525001</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.28460659794773</v>
+        <v>-25.40628655441716</v>
       </c>
       <c r="F20" t="n">
-        <v>5.655109219249718</v>
+        <v>2.375724750149779</v>
       </c>
       <c r="G20" t="n">
-        <v>-8.221222078922706</v>
+        <v>-7.764970180088469</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-7.139767421744407</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.21656375393966</v>
+        <v>-26.46746505090852</v>
       </c>
       <c r="F21" t="n">
-        <v>5.742749556346036</v>
+        <v>2.693984430165342</v>
       </c>
       <c r="G21" t="n">
-        <v>-8.269652580946365</v>
+        <v>-7.850239348854332</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.509712214788895</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.95602115355367</v>
+        <v>-27.25316756647668</v>
       </c>
       <c r="F22" t="n">
-        <v>5.657020820934682</v>
+        <v>2.453005281695104</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.507964867108484</v>
+        <v>-7.293963258529883</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.955920013462519</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.18501734619311</v>
+        <v>-27.37652209873582</v>
       </c>
       <c r="F23" t="n">
-        <v>5.836784714424278</v>
+        <v>2.842150672274066</v>
       </c>
       <c r="G23" t="n">
-        <v>-6.998090340957924</v>
+        <v>-6.764244253506515</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-8.441630943863137</v>
       </c>
       <c r="E24" t="n">
-        <v>-27.04517699184095</v>
+        <v>-28.22145982150352</v>
       </c>
       <c r="F24" t="n">
-        <v>6.331733102610146</v>
+        <v>3.556278127310598</v>
       </c>
       <c r="G24" t="n">
-        <v>-6.676154127778442</v>
+        <v>-6.387453383280246</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-8.917661643280814</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.23265084915968</v>
+        <v>-28.57238051189351</v>
       </c>
       <c r="F25" t="n">
-        <v>6.246331930658876</v>
+        <v>3.518984782929771</v>
       </c>
       <c r="G25" t="n">
-        <v>-6.464347683283085</v>
+        <v>-6.382403039186723</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-9.333048421244625</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.58753652411873</v>
+        <v>-29.0126429137695</v>
       </c>
       <c r="F26" t="n">
-        <v>6.106061434640219</v>
+        <v>3.268853413604669</v>
       </c>
       <c r="G26" t="n">
-        <v>-5.832008424123172</v>
+        <v>-5.740569328691262</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-9.654047291284352</v>
       </c>
       <c r="E27" t="n">
-        <v>-27.80867852722646</v>
+        <v>-29.20302817467747</v>
       </c>
       <c r="F27" t="n">
-        <v>6.377088419314516</v>
+        <v>3.772264672677167</v>
       </c>
       <c r="G27" t="n">
-        <v>-5.722127994789259</v>
+        <v>-5.968421493723834</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-9.839494042930488</v>
       </c>
       <c r="E28" t="n">
-        <v>-27.8324708791443</v>
+        <v>-29.10228041017096</v>
       </c>
       <c r="F28" t="n">
-        <v>6.261458517905111</v>
+        <v>3.461480284161118</v>
       </c>
       <c r="G28" t="n">
-        <v>-5.83426225628882</v>
+        <v>-6.561062017124397</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-9.87217939886018</v>
       </c>
       <c r="E29" t="n">
-        <v>-27.89714510648329</v>
+        <v>-28.97285617588655</v>
       </c>
       <c r="F29" t="n">
-        <v>5.955279573857696</v>
+        <v>3.217372171296054</v>
       </c>
       <c r="G29" t="n">
-        <v>-5.649726692097116</v>
+        <v>-6.405410705502425</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-9.741066538635806</v>
       </c>
       <c r="E30" t="n">
-        <v>-27.90494062793258</v>
+        <v>-28.99460981194089</v>
       </c>
       <c r="F30" t="n">
-        <v>6.663794449011009</v>
+        <v>4.08942921515454</v>
       </c>
       <c r="G30" t="n">
-        <v>-5.993516765971708</v>
+        <v>-6.765984739951136</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-9.445047711094885</v>
       </c>
       <c r="E31" t="n">
-        <v>-27.55622976864644</v>
+        <v>-28.70453036750622</v>
       </c>
       <c r="F31" t="n">
-        <v>6.593852316772924</v>
+        <v>3.937561994847561</v>
       </c>
       <c r="G31" t="n">
-        <v>-5.769864257837817</v>
+        <v>-6.596971772561887</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-9.005198666113898</v>
       </c>
       <c r="E32" t="n">
-        <v>-27.57340484976991</v>
+        <v>-28.55231358320826</v>
       </c>
       <c r="F32" t="n">
-        <v>6.064133311749557</v>
+        <v>3.261128782754943</v>
       </c>
       <c r="G32" t="n">
-        <v>-5.60030861068634</v>
+        <v>-6.286265608155708</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.44098664030057</v>
       </c>
       <c r="E33" t="n">
-        <v>-26.9574242075867</v>
+        <v>-27.8507655428403</v>
       </c>
       <c r="F33" t="n">
-        <v>6.378819127745404</v>
+        <v>3.658497482884056</v>
       </c>
       <c r="G33" t="n">
-        <v>-5.718026118027917</v>
+        <v>-6.418943476510046</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.792223864850636</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.70997201402466</v>
+        <v>-27.60286111614307</v>
       </c>
       <c r="F34" t="n">
-        <v>5.727764750298941</v>
+        <v>2.991069821440295</v>
       </c>
       <c r="G34" t="n">
-        <v>-5.238013645820474</v>
+        <v>-5.762467190448175</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.098794887089345</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.50409593485887</v>
+        <v>-27.45665047678112</v>
       </c>
       <c r="F35" t="n">
-        <v>6.495348606418322</v>
+        <v>3.838051149078375</v>
       </c>
       <c r="G35" t="n">
-        <v>-5.550606966877282</v>
+        <v>-6.020728978192957</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.398512578790206</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.92206700086295</v>
+        <v>-26.6897657486437</v>
       </c>
       <c r="F36" t="n">
-        <v>6.125989026629765</v>
+        <v>3.369474063932645</v>
       </c>
       <c r="G36" t="n">
-        <v>-5.143460253014339</v>
+        <v>-5.514579875274986</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.73965442174966</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.12885985975407</v>
+        <v>-25.92214522497282</v>
       </c>
       <c r="F37" t="n">
-        <v>6.054927311819156</v>
+        <v>3.304655610891087</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.941549158417619</v>
+        <v>-5.251492637752559</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.149636488249825</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.41839915986773</v>
+        <v>-25.05174066543535</v>
       </c>
       <c r="F38" t="n">
-        <v>5.5215122176044</v>
+        <v>2.53701797569617</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.746414227338442</v>
+        <v>-4.854823065605414</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-4.660735280246236</v>
       </c>
       <c r="E39" t="n">
-        <v>-23.98167395445995</v>
+        <v>-24.92226020757198</v>
       </c>
       <c r="F39" t="n">
-        <v>5.426367254967368</v>
+        <v>2.426262414133079</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.11125636478197</v>
+        <v>-5.451301459396506</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.291845680763865</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.60441373957445</v>
+        <v>-24.29813447994848</v>
       </c>
       <c r="F40" t="n">
-        <v>5.5254429791254</v>
+        <v>2.607610345847555</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.206303547281664</v>
+        <v>-5.274373189889721</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-4.044322110922796</v>
       </c>
       <c r="E41" t="n">
-        <v>-23.01822670523822</v>
+        <v>-23.68763930346995</v>
       </c>
       <c r="F41" t="n">
-        <v>5.818069596137727</v>
+        <v>2.883320999100357</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.405022120394289</v>
+        <v>-5.364154911993746</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.927564682369555</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.71598341171867</v>
+        <v>-23.61527711283274</v>
       </c>
       <c r="F42" t="n">
-        <v>5.638266590593196</v>
+        <v>2.782915465074524</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.637088609346141</v>
+        <v>-5.679999422617053</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-3.926344498614518</v>
       </c>
       <c r="E43" t="n">
-        <v>-22.3411432552323</v>
+        <v>-23.13888250570681</v>
       </c>
       <c r="F43" t="n">
-        <v>5.050691078306757</v>
+        <v>2.069335578807086</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.971511346063724</v>
+        <v>-6.054340900402996</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-4.030025077182978</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.76284707797927</v>
+        <v>-22.75228917671238</v>
       </c>
       <c r="F44" t="n">
-        <v>5.46159254944349</v>
+        <v>2.549783172625685</v>
       </c>
       <c r="G44" t="n">
-        <v>-6.124126584421341</v>
+        <v>-5.969902862804509</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-4.223665259165067</v>
       </c>
       <c r="E45" t="n">
-        <v>-21.38946384553924</v>
+        <v>-22.4573940605138</v>
       </c>
       <c r="F45" t="n">
-        <v>5.418002164218077</v>
+        <v>2.285517684448331</v>
       </c>
       <c r="G45" t="n">
-        <v>-6.390122781029582</v>
+        <v>-6.067991007575423</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-4.479077776863631</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.8518344274052</v>
+        <v>-21.82153471640971</v>
       </c>
       <c r="F46" t="n">
-        <v>5.39764922863111</v>
+        <v>2.559155398789561</v>
       </c>
       <c r="G46" t="n">
-        <v>-6.494913754215037</v>
+        <v>-5.946914752516275</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-4.784587675869021</v>
       </c>
       <c r="E47" t="n">
-        <v>-21.05597002012637</v>
+        <v>-22.20272569281621</v>
       </c>
       <c r="F47" t="n">
-        <v>5.605666692804607</v>
+        <v>2.508119056105836</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.048207550350669</v>
+        <v>-6.349803141398135</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-5.114442220146879</v>
       </c>
       <c r="E48" t="n">
-        <v>-20.30580080646694</v>
+        <v>-21.24021713291292</v>
       </c>
       <c r="F48" t="n">
-        <v>5.643786279345943</v>
+        <v>2.593608230180711</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.906480130285671</v>
+        <v>-5.906423997644485</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-5.449329022856412</v>
       </c>
       <c r="E49" t="n">
-        <v>-19.92714233561751</v>
+        <v>-20.98759725909256</v>
       </c>
       <c r="F49" t="n">
-        <v>5.771555584805898</v>
+        <v>2.725850976923893</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.760465051198389</v>
+        <v>-5.486243191474347</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-5.776385983093203</v>
       </c>
       <c r="E50" t="n">
-        <v>-20.03174263753515</v>
+        <v>-21.24123893534811</v>
       </c>
       <c r="F50" t="n">
-        <v>5.67608794771565</v>
+        <v>2.710181709915431</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.535470419741747</v>
+        <v>-6.189272600922982</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-6.074407562308801</v>
       </c>
       <c r="E51" t="n">
-        <v>-19.33284932789593</v>
+        <v>-20.59032145009392</v>
       </c>
       <c r="F51" t="n">
-        <v>6.086573853268696</v>
+        <v>3.270457007857017</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.598685278530958</v>
+        <v>-6.296248960177948</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-6.341238165606754</v>
       </c>
       <c r="E52" t="n">
-        <v>-18.67558591172848</v>
+        <v>-19.94356939869034</v>
       </c>
       <c r="F52" t="n">
-        <v>6.190333246005232</v>
+        <v>3.446348807908016</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.696846758404876</v>
+        <v>-6.171848180449298</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-6.569394379154182</v>
       </c>
       <c r="E53" t="n">
-        <v>-18.53109620278368</v>
+        <v>-19.71360518269126</v>
       </c>
       <c r="F53" t="n">
-        <v>6.31250463860257</v>
+        <v>3.45383876642813</v>
       </c>
       <c r="G53" t="n">
-        <v>-8.309732659241334</v>
+        <v>-6.84226791409561</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-6.756858100465352</v>
       </c>
       <c r="E54" t="n">
-        <v>-17.69379510874209</v>
+        <v>-18.87697877159731</v>
       </c>
       <c r="F54" t="n">
-        <v>6.650369236154461</v>
+        <v>3.947467122759931</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.945799877075052</v>
+        <v>-6.066749199831227</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-6.912151334073485</v>
       </c>
       <c r="E55" t="n">
-        <v>-17.32765738447883</v>
+        <v>-18.64896038033126</v>
       </c>
       <c r="F55" t="n">
-        <v>6.696140118442519</v>
+        <v>3.944572830694717</v>
       </c>
       <c r="G55" t="n">
-        <v>-9.086243841899702</v>
+        <v>-7.369703752912129</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-7.033369757446909</v>
       </c>
       <c r="E56" t="n">
-        <v>-17.37162911223986</v>
+        <v>-18.7487743445262</v>
       </c>
       <c r="F56" t="n">
-        <v>6.26006515094804</v>
+        <v>3.425399413483285</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.99276114159742</v>
+        <v>-6.965979343856026</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-7.134706138761148</v>
       </c>
       <c r="E57" t="n">
-        <v>-17.08656089984379</v>
+        <v>-18.53820481876817</v>
       </c>
       <c r="F57" t="n">
-        <v>6.583468066187597</v>
+        <v>3.866671395277295</v>
       </c>
       <c r="G57" t="n">
-        <v>-9.559851715111487</v>
+        <v>-7.342173755244531</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-7.221550726221086</v>
       </c>
       <c r="E58" t="n">
-        <v>-16.30158684629879</v>
+        <v>-17.73821662513488</v>
       </c>
       <c r="F58" t="n">
-        <v>6.466816362343006</v>
+        <v>3.749418343588073</v>
       </c>
       <c r="G58" t="n">
-        <v>-10.02855591443575</v>
+        <v>-7.774943754096975</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.299069205759399</v>
       </c>
       <c r="E59" t="n">
-        <v>-15.95482914525598</v>
+        <v>-17.19538530369445</v>
       </c>
       <c r="F59" t="n">
-        <v>6.502550113533288</v>
+        <v>3.763963139017145</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.881714593187965</v>
+        <v>-7.621516940599451</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-7.379662051571944</v>
       </c>
       <c r="E60" t="n">
-        <v>-15.07139049341131</v>
+        <v>-16.30481847983782</v>
       </c>
       <c r="F60" t="n">
-        <v>6.230897335980026</v>
+        <v>3.401433501821668</v>
       </c>
       <c r="G60" t="n">
-        <v>-10.00042945793039</v>
+        <v>-7.778102052533002</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-7.458528366323521</v>
       </c>
       <c r="E61" t="n">
-        <v>-14.7533459296979</v>
+        <v>-15.97526519395968</v>
       </c>
       <c r="F61" t="n">
-        <v>6.163331261079261</v>
+        <v>3.423116247276436</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.917898133010002</v>
+        <v>-7.616750158904209</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.545812168971969</v>
       </c>
       <c r="E62" t="n">
-        <v>-14.30430042698549</v>
+        <v>-15.37740810023212</v>
       </c>
       <c r="F62" t="n">
-        <v>5.912104754215969</v>
+        <v>3.121254296292507</v>
       </c>
       <c r="G62" t="n">
-        <v>-10.87642215231675</v>
+        <v>-8.795646162737144</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.63950206135845</v>
       </c>
       <c r="E63" t="n">
-        <v>-13.96030501482249</v>
+        <v>-14.8688584949425</v>
       </c>
       <c r="F63" t="n">
-        <v>5.998992184254782</v>
+        <v>3.245141730300131</v>
       </c>
       <c r="G63" t="n">
-        <v>-10.64973845992537</v>
+        <v>-8.650956004510796</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.735303453532304</v>
       </c>
       <c r="E64" t="n">
-        <v>-14.28037362737881</v>
+        <v>-15.25819455678927</v>
       </c>
       <c r="F64" t="n">
-        <v>5.679466251460688</v>
+        <v>3.06067950121143</v>
       </c>
       <c r="G64" t="n">
-        <v>-11.00200118270032</v>
+        <v>-9.02078003995171</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.837334733029944</v>
       </c>
       <c r="E65" t="n">
-        <v>-13.96021212369202</v>
+        <v>-14.82673481177716</v>
       </c>
       <c r="F65" t="n">
-        <v>5.701677009657083</v>
+        <v>2.918947192139566</v>
       </c>
       <c r="G65" t="n">
-        <v>-11.39189459132992</v>
+        <v>-9.462369807192069</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.932136281540425</v>
       </c>
       <c r="E66" t="n">
-        <v>-13.93811381265356</v>
+        <v>-14.89374842890196</v>
       </c>
       <c r="F66" t="n">
-        <v>5.535612113408583</v>
+        <v>2.70412911941419</v>
       </c>
       <c r="G66" t="n">
-        <v>-11.75030279573659</v>
+        <v>-9.786310513186987</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.023209835341753</v>
       </c>
       <c r="E67" t="n">
-        <v>-13.86890014243865</v>
+        <v>-14.7645613114506</v>
       </c>
       <c r="F67" t="n">
-        <v>4.91527047710008</v>
+        <v>1.888505881820503</v>
       </c>
       <c r="G67" t="n">
-        <v>-11.67091999123849</v>
+        <v>-9.801818442968841</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.103920278234339</v>
       </c>
       <c r="E68" t="n">
-        <v>-14.17680001690322</v>
+        <v>-15.07224606961302</v>
       </c>
       <c r="F68" t="n">
-        <v>5.097840660531284</v>
+        <v>2.172483845685258</v>
       </c>
       <c r="G68" t="n">
-        <v>-11.75184283289967</v>
+        <v>-10.01387422681441</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.1663405492843</v>
       </c>
       <c r="E69" t="n">
-        <v>-14.77122502781021</v>
+        <v>-15.56613354330877</v>
       </c>
       <c r="F69" t="n">
-        <v>5.400871084156407</v>
+        <v>2.441501448537253</v>
       </c>
       <c r="G69" t="n">
-        <v>-11.39064789457886</v>
+        <v>-9.580629994295874</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.21381564822766</v>
       </c>
       <c r="E70" t="n">
-        <v>-14.29524598626797</v>
+        <v>-15.07357099047396</v>
       </c>
       <c r="F70" t="n">
-        <v>5.196114587563142</v>
+        <v>2.265770985712862</v>
       </c>
       <c r="G70" t="n">
-        <v>-11.33293316851493</v>
+        <v>-9.360771355490709</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.234097222557129</v>
       </c>
       <c r="E71" t="n">
-        <v>-14.59461454374977</v>
+        <v>-15.17893397746284</v>
       </c>
       <c r="F71" t="n">
-        <v>4.879522058889197</v>
+        <v>1.919438628267474</v>
       </c>
       <c r="G71" t="n">
-        <v>-11.74969166987823</v>
+        <v>-9.956369728045756</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.23216501340942</v>
       </c>
       <c r="E72" t="n">
-        <v>-14.77853409307624</v>
+        <v>-15.4648919891087</v>
       </c>
       <c r="F72" t="n">
-        <v>4.900139000846978</v>
+        <v>1.951999414001127</v>
       </c>
       <c r="G72" t="n">
-        <v>-11.95959140169549</v>
+        <v>-10.22106055982053</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.205760250538511</v>
       </c>
       <c r="E73" t="n">
-        <v>-14.97790290410217</v>
+        <v>-15.83037947545866</v>
       </c>
       <c r="F73" t="n">
-        <v>4.981052064494421</v>
+        <v>2.032702250353292</v>
       </c>
       <c r="G73" t="n">
-        <v>-12.41871803656747</v>
+        <v>-10.5881125283679</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-8.151480758332559</v>
       </c>
       <c r="E74" t="n">
-        <v>-15.56306324699635</v>
+        <v>-16.38873828270841</v>
       </c>
       <c r="F74" t="n">
-        <v>5.05258801297112</v>
+        <v>2.043218504124027</v>
       </c>
       <c r="G74" t="n">
-        <v>-12.31699247068757</v>
+        <v>-10.53372721598034</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-8.07934601276331</v>
       </c>
       <c r="E75" t="n">
-        <v>-15.96176664600013</v>
+        <v>-16.71960671143375</v>
       </c>
       <c r="F75" t="n">
-        <v>4.978407111779419</v>
+        <v>1.899589260387799</v>
       </c>
       <c r="G75" t="n">
-        <v>-12.45333709419209</v>
+        <v>-10.72945371689042</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.984435743289524</v>
       </c>
       <c r="E76" t="n">
-        <v>-15.95411535025341</v>
+        <v>-16.5938614548167</v>
       </c>
       <c r="F76" t="n">
-        <v>4.833565394340197</v>
+        <v>1.730649628101553</v>
       </c>
       <c r="G76" t="n">
-        <v>-12.69642340462197</v>
+        <v>-11.00115538451235</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-7.878035158960471</v>
       </c>
       <c r="E77" t="n">
-        <v>-16.23108736727788</v>
+        <v>-16.74335750679322</v>
       </c>
       <c r="F77" t="n">
-        <v>4.912757527570485</v>
+        <v>1.697800390962752</v>
       </c>
       <c r="G77" t="n">
-        <v>-12.06681710030067</v>
+        <v>-10.37842302384592</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-7.765257792200963</v>
       </c>
       <c r="E78" t="n">
-        <v>-17.04971245508785</v>
+        <v>-17.63536658767559</v>
       </c>
       <c r="F78" t="n">
-        <v>4.662577268176713</v>
+        <v>1.360903816770509</v>
       </c>
       <c r="G78" t="n">
-        <v>-11.97022499163103</v>
+        <v>-10.1718282606707</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-7.646511950835825</v>
       </c>
       <c r="E79" t="n">
-        <v>-17.39119002871439</v>
+        <v>-18.04989570190757</v>
       </c>
       <c r="F79" t="n">
-        <v>5.106587093816196</v>
+        <v>1.875941134172532</v>
       </c>
       <c r="G79" t="n">
-        <v>-12.02325116010959</v>
+        <v>-10.32822759034331</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-7.535977652368067</v>
       </c>
       <c r="E80" t="n">
-        <v>-17.94914793740106</v>
+        <v>-18.43370718599473</v>
       </c>
       <c r="F80" t="n">
-        <v>4.823885160743705</v>
+        <v>1.491655416419283</v>
       </c>
       <c r="G80" t="n">
-        <v>-11.8836797920729</v>
+        <v>-10.13756610054736</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-7.430289399019031</v>
       </c>
       <c r="E81" t="n">
-        <v>-19.0335296604828</v>
+        <v>-19.468108591876</v>
       </c>
       <c r="F81" t="n">
-        <v>5.004675745675353</v>
+        <v>1.633935294260242</v>
       </c>
       <c r="G81" t="n">
-        <v>-11.40701140056242</v>
+        <v>-9.729368250208028</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-7.339704932077354</v>
       </c>
       <c r="E82" t="n">
-        <v>-19.85967892986095</v>
+        <v>-20.2275326955345</v>
       </c>
       <c r="F82" t="n">
-        <v>4.883105700922647</v>
+        <v>1.52211881820703</v>
       </c>
       <c r="G82" t="n">
-        <v>-11.37599065199185</v>
+        <v>-9.851490752736696</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-7.269569368239529</v>
       </c>
       <c r="E83" t="n">
-        <v>-20.76241449180933</v>
+        <v>-21.1039458445114</v>
       </c>
       <c r="F83" t="n">
-        <v>5.102235877704641</v>
+        <v>1.725755732227771</v>
       </c>
       <c r="G83" t="n">
-        <v>-10.95711032164831</v>
+        <v>-9.243146739279602</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-7.216984352698073</v>
       </c>
       <c r="E84" t="n">
-        <v>-22.18918803280172</v>
+        <v>-22.6471168609913</v>
       </c>
       <c r="F84" t="n">
-        <v>4.790869697371429</v>
+        <v>1.116047685854808</v>
       </c>
       <c r="G84" t="n">
-        <v>-10.67797736358867</v>
+        <v>-8.975312276089401</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-7.196610688256577</v>
       </c>
       <c r="E85" t="n">
-        <v>-23.3926806301821</v>
+        <v>-23.83721846856321</v>
       </c>
       <c r="F85" t="n">
-        <v>5.208102432400818</v>
+        <v>1.543390887084977</v>
       </c>
       <c r="G85" t="n">
-        <v>-10.61715811816425</v>
+        <v>-9.00838640754408</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-7.204810802884672</v>
       </c>
       <c r="E86" t="n">
-        <v>-24.89271593907521</v>
+        <v>-25.42224427283077</v>
       </c>
       <c r="F86" t="n">
-        <v>5.228465146001518</v>
+        <v>1.518148944631095</v>
       </c>
       <c r="G86" t="n">
-        <v>-9.688569487903623</v>
+        <v>-7.88490240754076</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-7.250492610863346</v>
       </c>
       <c r="E87" t="n">
-        <v>-25.74205376802314</v>
+        <v>-26.22119110800141</v>
       </c>
       <c r="F87" t="n">
-        <v>5.463841492602271</v>
+        <v>1.80003441355681</v>
       </c>
       <c r="G87" t="n">
-        <v>-9.679075036568074</v>
+        <v>-7.963659419159892</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-7.341659476353473</v>
       </c>
       <c r="E88" t="n">
-        <v>-26.65577981740834</v>
+        <v>-27.01993749389051</v>
       </c>
       <c r="F88" t="n">
-        <v>5.848748114227618</v>
+        <v>2.169589553620044</v>
       </c>
       <c r="G88" t="n">
-        <v>-9.528977636746918</v>
+        <v>-8.018929641790367</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-7.4719234504527</v>
       </c>
       <c r="E89" t="n">
-        <v>-28.22021312475246</v>
+        <v>-28.5786775527381</v>
       </c>
       <c r="F89" t="n">
-        <v>5.374661118342876</v>
+        <v>1.425878718031809</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.672619193938095</v>
+        <v>-6.898525716113201</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.656341721573708</v>
       </c>
       <c r="E90" t="n">
-        <v>-29.70860526379201</v>
+        <v>-29.78079878369231</v>
       </c>
       <c r="F90" t="n">
-        <v>5.399648832439678</v>
+        <v>1.44185110346602</v>
       </c>
       <c r="G90" t="n">
-        <v>-9.171918798235518</v>
+        <v>-7.565293361629928</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-7.888941386598296</v>
       </c>
       <c r="E91" t="n">
-        <v>-31.59793018896666</v>
+        <v>-31.67012615337039</v>
       </c>
       <c r="F91" t="n">
-        <v>5.601457257892194</v>
+        <v>1.60877157591623</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.496795839983234</v>
+        <v>-7.04500525085284</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-8.171730326207127</v>
       </c>
       <c r="E92" t="n">
-        <v>-33.16125369175198</v>
+        <v>-33.14607821443708</v>
       </c>
       <c r="F92" t="n">
-        <v>5.948601190477489</v>
+        <v>1.8753251193073</v>
       </c>
       <c r="G92" t="n">
-        <v>-9.012517618346624</v>
+        <v>-7.691385737734532</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.509258730958924</v>
       </c>
       <c r="E93" t="n">
-        <v>-34.79981167670883</v>
+        <v>-34.5656209142733</v>
       </c>
       <c r="F93" t="n">
-        <v>5.939228964313614</v>
+        <v>1.907529007539669</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.771010457134759</v>
+        <v>-7.627672200244897</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.885054760088657</v>
       </c>
       <c r="E94" t="n">
-        <v>-36.66931901254843</v>
+        <v>-36.11480296469608</v>
       </c>
       <c r="F94" t="n">
-        <v>5.472050135131822</v>
+        <v>1.188209427210473</v>
       </c>
       <c r="G94" t="n">
-        <v>-8.000542086963899</v>
+        <v>-6.735120439600303</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-9.306292829939084</v>
       </c>
       <c r="E95" t="n">
-        <v>-39.30539818008597</v>
+        <v>-38.97676402749882</v>
       </c>
       <c r="F95" t="n">
-        <v>5.523663380625843</v>
+        <v>1.1887521069727</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.727755059817512</v>
+        <v>-6.790737781718327</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-9.761304334075033</v>
       </c>
       <c r="E96" t="n">
-        <v>-41.06165900536379</v>
+        <v>-40.79745218526885</v>
       </c>
       <c r="F96" t="n">
-        <v>5.402499123443089</v>
+        <v>1.18900633532978</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.251262672554248</v>
+        <v>-6.438924847575128</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-10.23653184676387</v>
       </c>
       <c r="E97" t="n">
-        <v>-43.21071730935017</v>
+        <v>-42.74165865702805</v>
       </c>
       <c r="F97" t="n">
-        <v>5.268897232790905</v>
+        <v>0.8096194024571799</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.105897831380266</v>
+        <v>-6.266059342774748</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-10.73671988884185</v>
       </c>
       <c r="E98" t="n">
-        <v>-44.87598393882097</v>
+        <v>-44.35443690877565</v>
       </c>
       <c r="F98" t="n">
-        <v>5.267220303435553</v>
+        <v>0.7877802087826709</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.753899114976122</v>
+        <v>-5.976424797964973</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-11.22410213498751</v>
       </c>
       <c r="E99" t="n">
-        <v>-47.44560316926137</v>
+        <v>-46.7499353819026</v>
       </c>
       <c r="F99" t="n">
-        <v>5.528449718348552</v>
+        <v>1.288756742435446</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.058704248093935</v>
+        <v>-6.490850989508631</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.71880668948921</v>
       </c>
       <c r="E100" t="n">
-        <v>-49.53747598217716</v>
+        <v>-48.71145993823613</v>
       </c>
       <c r="F100" t="n">
-        <v>5.002289910324299</v>
+        <v>0.8075366855318742</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.282078082836413</v>
+        <v>-6.889422385327006</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-12.17021005493441</v>
       </c>
       <c r="E101" t="n">
-        <v>-51.30639811298857</v>
+        <v>-50.64932903484409</v>
       </c>
       <c r="F101" t="n">
-        <v>5.394652267421691</v>
+        <v>1.346363910348304</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.22190907532529</v>
+        <v>-6.957408914818324</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-12.61778741972458</v>
       </c>
       <c r="E102" t="n">
-        <v>-52.92597819553978</v>
+        <v>-52.38969325429414</v>
       </c>
       <c r="F102" t="n">
-        <v>5.045239835650147</v>
+        <v>0.959301236694648</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.439469880903006</v>
+        <v>-7.389396672572063</v>
       </c>
     </row>
   </sheetData>
